--- a/endo_all_metrics.xlsx
+++ b/endo_all_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\stv\study\FinalExam\EndoGaussian-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB44EBD-87BB-4B5B-8BC2-1213DECB1B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E662A7-96F1-4CEB-AB76-85BC6D24573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Dataset</t>
   </si>
@@ -107,7 +107,22 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>Ours</t>
+    <t>Ours (XYZ Only)</t>
+  </si>
+  <si>
+    <t>Ours (Full Attr)</t>
+  </si>
+  <si>
+    <t>Ours (Motion VQ)</t>
+  </si>
+  <si>
+    <t>Ours (XYZ)</t>
+  </si>
+  <si>
+    <t>Ours (Full)</t>
+  </si>
+  <si>
+    <t>Ours (VQ)</t>
   </si>
 </sst>
 </file>
@@ -512,13 +527,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -579,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3">
-        <v>37.86</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="D2" s="3">
         <v>0.96099999999999997</v>
@@ -618,271 +646,567 @@
         <v>334.39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2">
-        <v>38.39</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.96299999999999997</v>
+      <c r="C3" s="3">
+        <v>36.22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.94899999999999995</v>
       </c>
       <c r="E3" s="3">
-        <v>0.06</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>193.43</v>
+        <v>236.51</v>
       </c>
       <c r="G3" s="2">
-        <v>28.31</v>
+        <v>14.03</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="2" t="s">
-        <v>28</v>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="N3" s="3">
+        <v>36.22</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P3" s="3">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>232.22</v>
+      </c>
+      <c r="R3" s="2">
+        <v>15.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>38.39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="F4" s="3">
+        <v>193.43</v>
+      </c>
+      <c r="G4" s="3">
+        <v>28.31</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3">
         <v>38.1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O4" s="3">
         <v>0.96199999999999997</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P4" s="3">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="3">
         <v>184.76</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R4" s="3">
         <v>30.63</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2">
-        <v>27.57</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.248</v>
-      </c>
-      <c r="F4" s="3">
-        <v>55.28</v>
-      </c>
-      <c r="G4" s="3">
-        <v>182.36</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="3">
-        <v>37.25</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>82</v>
-      </c>
-      <c r="R4" s="3">
-        <v>333.03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3">
-        <v>27.41</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.80800000000000005</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="2">
+        <v>38.39</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.96299999999999997</v>
       </c>
       <c r="E5" s="3">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <v>99.08</v>
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="3">
+        <v>203.22</v>
       </c>
       <c r="G5" s="2">
-        <v>66.81</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="2">
-        <v>38.68</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0.96399999999999997</v>
+        <v>33</v>
+      </c>
+      <c r="N5" s="3">
+        <v>38.1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.96199999999999997</v>
       </c>
       <c r="P5" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>202.11</v>
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>190.3</v>
       </c>
       <c r="R5" s="2">
-        <v>25.99</v>
+        <v>19.739999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K6" s="2" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>27.57</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.247</v>
+      </c>
+      <c r="F6" s="3">
+        <v>55.28</v>
+      </c>
+      <c r="G6" s="3">
+        <v>182.35</v>
+      </c>
+      <c r="K6" s="3"/>
       <c r="L6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="2">
-        <v>29.7</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0.14199999999999999</v>
+      <c r="N6" s="3">
+        <v>37.25</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0.06</v>
       </c>
       <c r="Q6" s="3">
-        <v>54.21</v>
+        <v>82</v>
       </c>
       <c r="R6" s="3">
-        <v>182.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>333.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>26.78</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>111.99</v>
+      </c>
+      <c r="G7" s="2">
+        <v>33.11</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="2" t="s">
-        <v>28</v>
+      <c r="M7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="N7" s="3">
-        <v>29.42</v>
+        <v>36.22</v>
       </c>
       <c r="O7" s="3">
-        <v>0.85399999999999998</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P7" s="3">
-        <v>0.16800000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>99.4</v>
+        <v>240.81</v>
       </c>
       <c r="R7" s="2">
-        <v>68.3</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>27.41</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F8" s="3">
+        <v>99.08</v>
+      </c>
+      <c r="G8" s="3">
+        <v>66.81</v>
+      </c>
       <c r="K8" s="3"/>
-      <c r="L8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
-        <v>26.86</v>
+        <v>38.68</v>
       </c>
       <c r="O8" s="2">
-        <v>0.80400000000000005</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0.27900000000000003</v>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P8" s="3">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Q8" s="3">
-        <v>53.49</v>
+        <v>202.11</v>
       </c>
       <c r="R8" s="3">
-        <v>183.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>27.41</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>99.72</v>
+      </c>
+      <c r="G9" s="2">
+        <v>43</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="3">
-        <v>26.71</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.79400000000000004</v>
+        <v>33</v>
+      </c>
+      <c r="N9" s="2">
+        <v>38.68</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.96399999999999997</v>
       </c>
       <c r="P9" s="3">
-        <v>0.308</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>90.09</v>
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>216.13</v>
       </c>
       <c r="R9" s="2">
-        <v>71.040000000000006</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="3"/>
+      <c r="K10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="L10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="2">
-        <v>26.16</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0.78200000000000003</v>
+        <v>29.7</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.86399999999999999</v>
       </c>
       <c r="P10" s="2">
-        <v>0.32100000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>58.13</v>
+        <v>54.21</v>
       </c>
       <c r="R10" s="3">
-        <v>180.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>182.79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="2" t="s">
-        <v>28</v>
+      <c r="M11" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="N11" s="3">
+        <v>29.07</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="P11" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>107.31</v>
+      </c>
+      <c r="R11" s="2">
+        <v>33.840000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="3">
+        <v>29.42</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>99.4</v>
+      </c>
+      <c r="R12" s="3">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="3">
+        <v>29.42</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>101.11</v>
+      </c>
+      <c r="R13" s="2">
+        <v>43.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="3"/>
+      <c r="L14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>26.86</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>53.49</v>
+      </c>
+      <c r="R14" s="3">
+        <v>183.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="3">
+        <v>25.86</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.311</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>110.37</v>
+      </c>
+      <c r="R15" s="2">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="3">
+        <v>26.71</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.308</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>90.09</v>
+      </c>
+      <c r="R16" s="3">
+        <v>71.040000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="3">
+        <v>26.71</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.308</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>91.79</v>
+      </c>
+      <c r="R17" s="2">
+        <v>45.72</v>
+      </c>
+    </row>
+    <row r="18" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="3"/>
+      <c r="L18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="2">
+        <v>26.16</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>58.13</v>
+      </c>
+      <c r="R18" s="3">
+        <v>180.67</v>
+      </c>
+    </row>
+    <row r="19" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="3">
+        <v>25.41</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.754</v>
+      </c>
+      <c r="P19" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>118.29</v>
+      </c>
+      <c r="R19" s="2">
+        <v>30.27</v>
+      </c>
+    </row>
+    <row r="20" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="3">
         <v>26.11</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O20" s="3">
         <v>0.77600000000000002</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P20" s="3">
         <v>0.35299999999999998</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q20" s="3">
         <v>107.75</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R20" s="3">
         <v>61.09</v>
+      </c>
+    </row>
+    <row r="21" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="3">
+        <v>26.11</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>106.26</v>
+      </c>
+      <c r="R21" s="2">
+        <v>39.32</v>
       </c>
     </row>
   </sheetData>

--- a/endo_all_metrics.xlsx
+++ b/endo_all_metrics.xlsx
@@ -5,23 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\stv\study\FinalExam\EndoGaussian-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/FC7055A58AB48101/文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E662A7-96F1-4CEB-AB76-85BC6D24573C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{DE003A4F-7074-4832-8D79-99E20407BD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB0F3DB6-1E14-4191-86B5-4284E20FC2BE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="1950" windowWidth="16820" windowHeight="9550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="DatasetSummary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>Dataset</t>
   </si>
@@ -71,65 +70,20 @@
     <t>Storage (MB) ↓</t>
   </si>
   <si>
-    <t>PSNR ↑.1</t>
-  </si>
-  <si>
-    <t>SSIM ↑.1</t>
-  </si>
-  <si>
-    <t>LPIPS ↓.1</t>
-  </si>
-  <si>
-    <t>FPS ↑.1</t>
-  </si>
-  <si>
-    <t>Storage (MB) ↓.1</t>
-  </si>
-  <si>
-    <t>PSNR</t>
-  </si>
-  <si>
-    <t>SSIM</t>
-  </si>
-  <si>
-    <t>LPIPS</t>
-  </si>
-  <si>
-    <t>Overall_MB</t>
-  </si>
-  <si>
-    <t>PSNR*</t>
-  </si>
-  <si>
-    <t>FLIP</t>
-  </si>
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
     <t>Ours (XYZ Only)</t>
   </si>
   <si>
     <t>Ours (Full Attr)</t>
   </si>
   <si>
-    <t>Ours (Motion VQ)</t>
-  </si>
-  <si>
-    <t>Ours (XYZ)</t>
-  </si>
-  <si>
-    <t>Ours (Full)</t>
-  </si>
-  <si>
-    <t>Ours (VQ)</t>
+    <t>Ours (Final VQ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +116,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,6 +191,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +503,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -625,31 +598,31 @@
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="2">
-        <v>38.479999999999997</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="P2" s="2">
-        <v>4.2999999999999997E-2</v>
+      <c r="N2" s="3">
+        <v>37.25</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0.06</v>
       </c>
       <c r="Q2" s="3">
-        <v>76.08</v>
+        <v>82</v>
       </c>
       <c r="R2" s="3">
-        <v>334.39</v>
+        <v>333.03</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>36.22</v>
@@ -663,34 +636,34 @@
       <c r="F3" s="2">
         <v>236.51</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>14.03</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N3" s="3">
         <v>36.22</v>
       </c>
       <c r="O3" s="3">
-        <v>0.94899999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P3" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>232.22</v>
-      </c>
-      <c r="R3" s="2">
-        <v>15.18</v>
+        <v>240.81</v>
+      </c>
+      <c r="R3" s="3">
+        <v>12.88</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>38.39</v>
@@ -702,7 +675,7 @@
         <v>0.06</v>
       </c>
       <c r="F4" s="3">
-        <v>193.43</v>
+        <v>193.44</v>
       </c>
       <c r="G4" s="3">
         <v>28.31</v>
@@ -710,31 +683,31 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="3">
-        <v>38.1</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.96199999999999997</v>
+        <v>17</v>
+      </c>
+      <c r="N4" s="2">
+        <v>38.68</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.96399999999999997</v>
       </c>
       <c r="P4" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="Q4" s="3">
-        <v>184.76</v>
+        <v>202.11</v>
       </c>
       <c r="R4" s="3">
-        <v>30.63</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
-        <v>38.39</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="D5" s="2">
         <v>0.96299999999999997</v>
@@ -743,30 +716,30 @@
         <v>0.06</v>
       </c>
       <c r="F5" s="3">
-        <v>203.22</v>
+        <v>142.5</v>
       </c>
       <c r="G5" s="2">
-        <v>18.239999999999998</v>
+        <v>11.73</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="3">
-        <v>38.1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0.96199999999999997</v>
+        <v>18</v>
+      </c>
+      <c r="N5" s="2">
+        <v>38.630000000000003</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.96399999999999997</v>
       </c>
       <c r="P5" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="Q5" s="3">
-        <v>190.3</v>
+        <v>131.4</v>
       </c>
       <c r="R5" s="2">
-        <v>19.739999999999998</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -791,33 +764,35 @@
       <c r="G6" s="3">
         <v>182.35</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="3">
-        <v>37.25</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>82</v>
-      </c>
-      <c r="R6" s="3">
-        <v>333.03</v>
+      <c r="N6" s="4">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>76.08</v>
+      </c>
+      <c r="R6" s="5">
+        <v>334.39</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
         <v>26.78</v>
@@ -831,34 +806,34 @@
       <c r="F7" s="2">
         <v>111.99</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>33.11</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="3">
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="5">
         <v>36.22</v>
       </c>
-      <c r="O7" s="3">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="P7" s="3">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>240.81</v>
-      </c>
-      <c r="R7" s="2">
-        <v>12.88</v>
+      <c r="O7" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P7" s="5">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>232.22</v>
+      </c>
+      <c r="R7" s="5">
+        <v>15.18</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>27.41</v>
@@ -875,158 +850,158 @@
       <c r="G8" s="3">
         <v>66.81</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="2">
-        <v>38.68</v>
-      </c>
-      <c r="O8" s="2">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="P8" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>202.11</v>
-      </c>
-      <c r="R8" s="3">
-        <v>25.99</v>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="5">
+        <v>38.1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P8" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>184.76</v>
+      </c>
+      <c r="R8" s="5">
+        <v>30.63</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
-        <v>27.41</v>
+        <v>27.39</v>
       </c>
       <c r="D9" s="3">
         <v>0.80800000000000005</v>
       </c>
       <c r="E9" s="3">
-        <v>0.27600000000000002</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="F9" s="3">
-        <v>99.72</v>
+        <v>94.19</v>
       </c>
       <c r="G9" s="2">
-        <v>43</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="2">
-        <v>38.68</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="P9" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>216.13</v>
-      </c>
-      <c r="R9" s="2">
-        <v>16.75</v>
+        <v>27.58</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="5">
+        <v>38.049999999999997</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P9" s="5">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>153.59</v>
+      </c>
+      <c r="R9" s="4">
+        <v>12.72</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>29.7</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>0.86399999999999999</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="5">
         <v>54.21</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="5">
         <v>182.79</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="3">
+    <row r="11" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="5">
         <v>29.07</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="5">
         <v>0.84399999999999997</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="5">
         <v>0.17399999999999999</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="4">
         <v>107.31</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="5">
         <v>33.840000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="5">
         <v>29.42</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="5">
         <v>0.85399999999999998</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="5">
         <v>99.4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="5">
         <v>68.3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="3">
-        <v>29.42</v>
-      </c>
-      <c r="O13" s="3">
+    <row r="13" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="5">
+        <v>29.41</v>
+      </c>
+      <c r="O13" s="5">
         <v>0.85399999999999998</v>
       </c>
-      <c r="P13" s="3">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>101.11</v>
-      </c>
-      <c r="R13" s="2">
-        <v>43.96</v>
+      <c r="P13" s="5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>95.72</v>
+      </c>
+      <c r="R13" s="4">
+        <v>28.18</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1053,11 +1028,11 @@
         <v>183.6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N15" s="3">
         <v>25.86</v>
@@ -1071,7 +1046,7 @@
       <c r="Q15" s="2">
         <v>110.37</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="3">
         <v>35.200000000000003</v>
       </c>
     </row>
@@ -1079,7 +1054,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N16" s="3">
         <v>26.71</v>
@@ -1097,14 +1072,14 @@
         <v>71.040000000000006</v>
       </c>
     </row>
-    <row r="17" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:18" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N17" s="3">
-        <v>26.71</v>
+        <v>26.69</v>
       </c>
       <c r="O17" s="3">
         <v>0.79400000000000004</v>
@@ -1113,10 +1088,10 @@
         <v>0.308</v>
       </c>
       <c r="Q17" s="3">
-        <v>91.79</v>
+        <v>87.47</v>
       </c>
       <c r="R17" s="2">
-        <v>45.72</v>
+        <v>29.34</v>
       </c>
     </row>
     <row r="18" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1143,11 +1118,11 @@
         <v>180.67</v>
       </c>
     </row>
-    <row r="19" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:18" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N19" s="3">
         <v>25.41</v>
@@ -1161,15 +1136,14 @@
       <c r="Q19" s="2">
         <v>118.29</v>
       </c>
-      <c r="R19" s="2">
+      <c r="R19" s="3">
         <v>30.27</v>
       </c>
     </row>
     <row r="20" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N20" s="3">
         <v>26.11</v>
@@ -1187,191 +1161,30 @@
         <v>61.09</v>
       </c>
     </row>
-    <row r="21" spans="11:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K21" s="3"/>
+    <row r="21" spans="11:18" ht="42.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L21" s="3"/>
       <c r="M21" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N21" s="3">
-        <v>26.11</v>
+        <v>26.09</v>
       </c>
       <c r="O21" s="3">
-        <v>0.77600000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="P21" s="3">
         <v>0.35299999999999998</v>
       </c>
       <c r="Q21" s="3">
-        <v>106.26</v>
+        <v>99.39</v>
       </c>
       <c r="R21" s="2">
-        <v>39.32</v>
+        <v>25.22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>37.86</v>
-      </c>
-      <c r="C2">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="D2">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="E2">
-        <v>79.040000000000006</v>
-      </c>
-      <c r="F2">
-        <v>333.71</v>
-      </c>
-      <c r="G2">
-        <v>38.479999999999997</v>
-      </c>
-      <c r="H2">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="I2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="J2">
-        <v>76.08</v>
-      </c>
-      <c r="K2">
-        <v>334.39</v>
-      </c>
-      <c r="L2">
-        <v>37.035182952880859</v>
-      </c>
-      <c r="M2">
-        <v>0.95471048355102539</v>
-      </c>
-      <c r="N2">
-        <v>7.6885692775249481E-2</v>
-      </c>
-      <c r="O2">
-        <v>19.4345</v>
-      </c>
-      <c r="P2">
-        <v>35.252487182617188</v>
-      </c>
-      <c r="Q2">
-        <v>5.0990123301744461E-2</v>
-      </c>
-      <c r="R2">
-        <v>3.8180339910572449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>27.57</v>
-      </c>
-      <c r="C3">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="D3">
-        <v>0.248</v>
-      </c>
-      <c r="E3">
-        <v>55.28</v>
-      </c>
-      <c r="F3">
-        <v>182.36</v>
-      </c>
-      <c r="G3">
-        <v>37.25</v>
-      </c>
-      <c r="H3">
-        <v>0.95799999999999996</v>
-      </c>
-      <c r="I3">
-        <v>0.06</v>
-      </c>
-      <c r="J3">
-        <v>82</v>
-      </c>
-      <c r="K3">
-        <v>333.03</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>